--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/myfoundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E64FF9-1C63-294B-B3D6-9BA0BC35647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3CFCD9-AD27-644B-9C56-91260C1E5B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="4300" windowWidth="20820" windowHeight="10260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="4300" windowWidth="20820" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>Kelembagaan</t>
   </si>
   <si>
-    <t>tune</t>
-  </si>
-  <si>
     <t>blue-grey</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>member, chairman</t>
+  </si>
+  <si>
+    <t>foundation</t>
   </si>
 </sst>
 </file>
@@ -622,8 +622,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -672,25 +672,25 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -780,13 +780,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -812,13 +812,13 @@
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
@@ -844,13 +844,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>29</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -879,13 +879,13 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>32</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>35</v>
@@ -968,10 +968,10 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1062,26 +1062,26 @@
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1120,57 +1120,57 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1185,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1241,27 +1241,27 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1269,27 +1269,27 @@
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1297,27 +1297,27 @@
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/myfoundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3CFCD9-AD27-644B-9C56-91260C1E5B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C62E43-B3EC-8E4A-AE34-0D23087BFBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="4300" windowWidth="20820" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7960" yWindow="1020" windowWidth="20820" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -717,8 +717,8 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/myfoundation/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/myfoundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C62E43-B3EC-8E4A-AE34-0D23087BFBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DDE167-04AD-FA45-AB1B-D9EFDDC274B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="1020" windowWidth="20820" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7960" yWindow="1020" windowWidth="20820" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
   <si>
     <t>module</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>blue-grey</t>
-  </si>
-  <si>
-    <t>backend</t>
   </si>
   <si>
     <t>Lembaga Ku</t>
@@ -622,8 +619,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -672,25 +669,23 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
@@ -717,7 +712,7 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -771,7 +766,7 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -780,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -803,7 +798,7 @@
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -812,13 +807,13 @@
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
@@ -835,7 +830,7 @@
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
@@ -844,13 +839,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>29</v>
@@ -870,7 +865,7 @@
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -879,13 +874,13 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>32</v>
@@ -902,7 +897,7 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -911,13 +906,13 @@
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>35</v>
@@ -968,10 +963,10 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -979,10 +974,10 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -990,10 +985,10 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1001,10 +996,10 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1012,10 +1007,10 @@
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1054,7 +1049,7 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1062,26 +1057,26 @@
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1120,57 +1115,57 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1213,13 +1208,13 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1227,13 +1222,13 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1241,27 +1236,27 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1269,27 +1264,27 @@
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1297,27 +1292,27 @@
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
